--- a/Desafio2/Separados/Separados.xlsx
+++ b/Desafio2/Separados/Separados.xlsx
@@ -304,6 +304,22 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.76171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.24609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.8828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.39453125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.7890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.38671875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="19.8046875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="13.9609375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="48.7109375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
